--- a/excel/T-通用配置.xlsx
+++ b/excel/T-通用配置.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E833EEDD-524C-4352-AD8A-EBCFEB2AF575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B373E86-F3B3-4E34-BE6B-9A3AD12174CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,11 +83,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>MaxFeeFilter</t>
+    <t>最大筛选费用</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>最大筛选费用</t>
+    <t>maxFeeFilter</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1106,7 +1106,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1195,10 +1195,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>19</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>18</v>
       </c>
       <c r="C8" s="11">
         <v>7</v>

--- a/excel/T-通用配置.xlsx
+++ b/excel/T-通用配置.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B373E86-F3B3-4E34-BE6B-9A3AD12174CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCAA0FD-6843-4DE4-9CC0-6192EA81B987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>导出类型</t>
   </si>
@@ -88,6 +88,26 @@
   </si>
   <si>
     <t>maxFeeFilter</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardMakeFee</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[40,100,400,1600]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌合成消耗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌分解返还比例</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardDisassembleReturnRatio</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1106,7 +1126,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1205,12 +1225,26 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="11"/>

--- a/excel/T-通用配置.xlsx
+++ b/excel/T-通用配置.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCAA0FD-6843-4DE4-9CC0-6192EA81B987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F9C265-5A4A-406B-85D9-91A025F9C911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-4620" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>导出类型</t>
   </si>
@@ -108,6 +108,14 @@
   </si>
   <si>
     <t>cardDisassembleReturnRatio</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大卡组数量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxGroupNum</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1126,7 +1134,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1247,8 +1255,15 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="11">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="11"/>

--- a/excel/T-通用配置.xlsx
+++ b/excel/T-通用配置.xlsx
@@ -1,149 +1,126 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F9C265-5A4A-406B-85D9-91A025F9C911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-4620" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17810"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>导出类型</t>
   </si>
   <si>
+    <t>tiny</t>
+  </si>
+  <si>
     <t>导出文件头</t>
   </si>
   <si>
+    <t>common={</t>
+  </si>
+  <si>
     <t>导出文件</t>
   </si>
   <si>
+    <t>common.json</t>
+  </si>
+  <si>
     <t>导出文件尾</t>
   </si>
   <si>
+    <t>}</t>
+  </si>
+  <si>
     <t>key数量</t>
   </si>
   <si>
     <t>配置备注</t>
   </si>
   <si>
+    <t>通用key</t>
+  </si>
+  <si>
+    <t>通用值</t>
+  </si>
+  <si>
     <t>导出参数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiny</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>key</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>value</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用key</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>common.json</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>common={</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>最大筛选费用</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>maxFeeFilter</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌合成消耗</t>
   </si>
   <si>
     <t>cardMakeFee</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>[40,100,400,1600]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌合成消耗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>卡牌分解返还比例</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>cardDisassembleReturnRatio</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>最大卡组数量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>maxGroupNum</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>换牌时间(单位毫秒)</t>
+  </si>
+  <si>
+    <t>replaceCardTime</t>
+  </si>
+  <si>
+    <t>回合操作时间(单位毫秒)</t>
+  </si>
+  <si>
+    <t>roundOptTime</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -152,21 +129,6 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -175,7 +137,6 @@
       <sz val="9"/>
       <color rgb="FF0070C0"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -183,7 +144,6 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -191,7 +151,6 @@
       <sz val="9"/>
       <color indexed="9"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -199,7 +158,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -207,14 +165,115 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="华文细黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="华文细黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -222,94 +281,126 @@
       <sz val="14"/>
       <color theme="5" tint="-0.249977111117893"/>
       <name val="华文新魏"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="新宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="华文细黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="新宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="Jokerman"/>
-      <family val="1"/>
+      <name val="华文中宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="华文中宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249946592608417"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF7030A0"/>
       <name val="华文仿宋"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF3F3F76"/>
-      <name val="华文细黑"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Jokerman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Kristen ITC"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="Lucida Calligraphy"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFC00000"/>
-      <name val="华文中宋"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Kristen ITC"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="华文细黑"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="新宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="华文细黑"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="9" tint="-0.24994659260841701"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="新宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="华文中宋"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,13 +409,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.7993408001953185"/>
+        <fgColor theme="3" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.799340800195319"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,6 +433,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -354,8 +451,216 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.0499893185216834"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color theme="1" tint="0.250984221930601"/>
+        </stop>
+        <stop position="1">
+          <color theme="1"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.149571214941862"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.149937437055574"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.149906918546098"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -364,58 +669,30 @@
           <color theme="0"/>
         </stop>
         <stop position="1">
-          <color theme="9" tint="0.59999389629810485"/>
+          <color theme="9" tint="0.599993896298105"/>
         </stop>
       </gradientFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="0" tint="-0.149540696432386"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14990691854609822"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14954069643238624"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <gradientFill degree="90">
-        <stop position="0">
-          <color theme="1" tint="0.25098422193060094"/>
-        </stop>
-        <stop position="1">
-          <color theme="1"/>
-        </stop>
-      </gradientFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14957121494186223"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14993743705557422"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -479,6 +756,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -508,6 +800,74 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -521,348 +881,520 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="66">
+  <cellStyleXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="5">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="5">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="14" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="14" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="42" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="43" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="44" borderId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="45" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="44" borderId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="46" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="46" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="47" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="47" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="66">
+  <cellStyles count="114">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="常规 2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="常规 2 3" xfId="15" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="常规 2 4" xfId="16" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="常规 3 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="常规 4" xfId="18" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="常规 5" xfId="19" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="常规 6" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="常规 7" xfId="65" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="黑色标题" xfId="20" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="黑色标题 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="黑色单元格1" xfId="5" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="黑色单元格1 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="黑色单元格2" xfId="21" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="黑色单元格2 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="黑色单元格2 2 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="黑色单元格2 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="我的标题" xfId="11" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="我的标题 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="我的单元格1" xfId="23" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="我的单元格1 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="我的单元格1 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="我的单元格1 3" xfId="25" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="我的单元格2" xfId="26" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="我的单元格2 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="我的单元格2 2 2" xfId="7" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="我的单元格2 3" xfId="29" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="我的单元格3" xfId="30" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="我的单元格3 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="我的单元格4" xfId="32" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="我的单元格4 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="我的公式" xfId="34" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="我的公式 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="我的公式 3" xfId="35" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="我的公式2" xfId="36" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="我的公式2 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="我的公式2 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="我的公式2 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="我的链接" xfId="40" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="我的链接 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="我的链接 2 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="我的链接 3" xfId="43" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="我的强调" xfId="8" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="我的强调 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="我的强调 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="我的强调 3" xfId="46" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="我的外边框" xfId="47" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="我的外边框 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="我的外边框 2 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="我的外边框 3" xfId="50" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="我的选择" xfId="51" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="我的选择 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="我的选择 2 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="我的选择 3" xfId="54" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="我的选择 4" xfId="55" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="我的英文1" xfId="56" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="我的英文1 2" xfId="57" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="我的英文1 2 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="我的英文2" xfId="59" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="我的英文2 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="我的英文2 2 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="我的英文3" xfId="62" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="我的英文3 2" xfId="63" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="我的英文3 2 2" xfId="64" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="我的单元格1 2 2" xfId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
+    <cellStyle name="差" xfId="8" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8"/>
+    <cellStyle name="黑色单元格1" xfId="12"/>
+    <cellStyle name="百分比" xfId="13" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
+    <cellStyle name="黑色单元格1 2" xfId="15"/>
+    <cellStyle name="注释" xfId="16" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="17"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="18" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="19" builtinId="19"/>
+    <cellStyle name="我的单元格2 2 2" xfId="20"/>
+    <cellStyle name="警告文本" xfId="21" builtinId="11"/>
+    <cellStyle name="标题" xfId="22" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="23" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="24" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="25" builtinId="17"/>
+    <cellStyle name="我的强调" xfId="26"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="27" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="28" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="29" builtinId="44"/>
+    <cellStyle name="输出" xfId="30" builtinId="21"/>
+    <cellStyle name="计算" xfId="31" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="32" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="33" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="34" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="35" builtinId="24"/>
+    <cellStyle name="汇总" xfId="36" builtinId="25"/>
+    <cellStyle name="好" xfId="37" builtinId="26"/>
+    <cellStyle name="适中" xfId="38" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="39" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="40" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="41" builtinId="30"/>
+    <cellStyle name="黑色标题 2" xfId="42"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="43" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="44" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="45" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="46" builtinId="37"/>
+    <cellStyle name="常规 3 2" xfId="47"/>
+    <cellStyle name="强调文字颜色 4" xfId="48" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="49" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="50" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="51" builtinId="45"/>
+    <cellStyle name="常规 2 2" xfId="52"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="53" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="54" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="55" builtinId="49"/>
+    <cellStyle name="常规 2 3" xfId="56"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="57" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="58" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="59"/>
+    <cellStyle name="我的外边框 2 2" xfId="60"/>
+    <cellStyle name="常规 2 4" xfId="61"/>
+    <cellStyle name="常规 3" xfId="62"/>
+    <cellStyle name="常规 4" xfId="63"/>
+    <cellStyle name="常规 5" xfId="64"/>
+    <cellStyle name="常规 7" xfId="65"/>
+    <cellStyle name="黑色标题" xfId="66"/>
+    <cellStyle name="黑色单元格2" xfId="67"/>
+    <cellStyle name="黑色单元格2 2" xfId="68"/>
+    <cellStyle name="黑色单元格2 2 2" xfId="69"/>
+    <cellStyle name="我的标题" xfId="70"/>
+    <cellStyle name="黑色单元格2 3" xfId="71"/>
+    <cellStyle name="我的标题 2" xfId="72"/>
+    <cellStyle name="我的单元格1" xfId="73"/>
+    <cellStyle name="我的单元格1 2" xfId="74"/>
+    <cellStyle name="我的单元格1 3" xfId="75"/>
+    <cellStyle name="我的单元格2" xfId="76"/>
+    <cellStyle name="我的单元格2 2" xfId="77"/>
+    <cellStyle name="我的公式 2" xfId="78"/>
+    <cellStyle name="我的单元格2 3" xfId="79"/>
+    <cellStyle name="我的单元格3" xfId="80"/>
+    <cellStyle name="我的单元格3 2" xfId="81"/>
+    <cellStyle name="我的单元格4" xfId="82"/>
+    <cellStyle name="我的单元格4 2" xfId="83"/>
+    <cellStyle name="我的公式" xfId="84"/>
+    <cellStyle name="我的公式 3" xfId="85"/>
+    <cellStyle name="我的公式2" xfId="86"/>
+    <cellStyle name="我的公式2 2" xfId="87"/>
+    <cellStyle name="我的公式2 2 2" xfId="88"/>
+    <cellStyle name="我的公式2 3" xfId="89"/>
+    <cellStyle name="我的链接" xfId="90"/>
+    <cellStyle name="我的链接 2" xfId="91"/>
+    <cellStyle name="我的链接 2 2" xfId="92"/>
+    <cellStyle name="我的链接 3" xfId="93"/>
+    <cellStyle name="我的强调 2" xfId="94"/>
+    <cellStyle name="我的强调 2 2" xfId="95"/>
+    <cellStyle name="我的强调 3" xfId="96"/>
+    <cellStyle name="我的外边框" xfId="97"/>
+    <cellStyle name="我的外边框 2" xfId="98"/>
+    <cellStyle name="我的外边框 3" xfId="99"/>
+    <cellStyle name="我的选择" xfId="100"/>
+    <cellStyle name="我的选择 2" xfId="101"/>
+    <cellStyle name="我的选择 2 2" xfId="102"/>
+    <cellStyle name="我的选择 3" xfId="103"/>
+    <cellStyle name="我的选择 4" xfId="104"/>
+    <cellStyle name="我的英文1" xfId="105"/>
+    <cellStyle name="我的英文1 2" xfId="106"/>
+    <cellStyle name="我的英文1 2 2" xfId="107"/>
+    <cellStyle name="我的英文2" xfId="108"/>
+    <cellStyle name="我的英文2 2" xfId="109"/>
+    <cellStyle name="我的英文2 2 2" xfId="110"/>
+    <cellStyle name="我的英文3" xfId="111"/>
+    <cellStyle name="我的英文3 2" xfId="112"/>
+    <cellStyle name="我的英文3 2 2" xfId="113"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1120,65 +1652,60 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="24.75" customWidth="1"/>
     <col min="2" max="2" width="22.75" customWidth="1"/>
     <col min="3" max="3" width="50.5" customWidth="1"/>
-    <col min="4" max="4" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.25" customWidth="1"/>
     <col min="5" max="5" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -1187,54 +1714,54 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="C7" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>19</v>
       </c>
       <c r="C8" s="11">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>20</v>
@@ -1243,55 +1770,67 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>23</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>24</v>
       </c>
       <c r="C10" s="11">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="C11" s="11">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="11">
+        <v>50000</v>
+      </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="11">
+        <v>50000</v>
+      </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5 B7:C7 B6">
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:C5 B7:C7 B6">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/excel/T-通用配置.xlsx
+++ b/excel/T-通用配置.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>导出类型</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>maxGroupNum</t>
+  </si>
+  <si>
+    <t>最大手牌数量</t>
+  </si>
+  <si>
+    <t>maxHandCardNum</t>
   </si>
   <si>
     <t>换牌时间(单位毫秒)</t>
@@ -116,7 +122,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,13 +171,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -225,9 +224,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -236,13 +235,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -400,7 +392,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="48">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -475,19 +467,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,18 +657,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.149540696432386"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -883,249 +851,295 @@
   </borders>
   <cellStyleXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="14" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="14" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="14" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="42" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="43" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="44" borderId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="45" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="44" borderId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="14" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="43" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="46" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="46" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="47" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="47" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1142,55 +1156,27 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1199,24 +1185,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1262,8 +1230,8 @@
     <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
     <cellStyle name="输入" xfId="3" builtinId="20"/>
     <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="我的单元格1 2 2" xfId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="我的单元格1 2 2" xfId="6"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
     <cellStyle name="差" xfId="8" builtinId="27"/>
     <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
@@ -1275,16 +1243,16 @@
     <cellStyle name="黑色单元格1 2" xfId="15"/>
     <cellStyle name="注释" xfId="16" builtinId="10"/>
     <cellStyle name="常规 6" xfId="17"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="18" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="19" builtinId="19"/>
-    <cellStyle name="我的单元格2 2 2" xfId="20"/>
-    <cellStyle name="警告文本" xfId="21" builtinId="11"/>
+    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
+    <cellStyle name="我的单元格2 2 2" xfId="19"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="20" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="21" builtinId="19"/>
     <cellStyle name="标题" xfId="22" builtinId="15"/>
     <cellStyle name="解释性文本" xfId="23" builtinId="53"/>
     <cellStyle name="标题 1" xfId="24" builtinId="16"/>
     <cellStyle name="标题 2" xfId="25" builtinId="17"/>
-    <cellStyle name="我的强调" xfId="26"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="26" builtinId="32"/>
+    <cellStyle name="我的强调" xfId="27"/>
     <cellStyle name="标题 3" xfId="28" builtinId="18"/>
     <cellStyle name="60% - 强调文字颜色 4" xfId="29" builtinId="44"/>
     <cellStyle name="输出" xfId="30" builtinId="21"/>
@@ -1661,7 +1629,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1800,7 +1768,7 @@
         <v>27</v>
       </c>
       <c r="C12" s="11">
-        <v>50000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1814,9 +1782,16 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="11">
+        <v>90000</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B3">

--- a/excel/T-通用配置.xlsx
+++ b/excel/T-通用配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17810"/>
+    <workbookView windowWidth="25600" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>导出类型</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>roundOptTime</t>
+  </si>
+  <si>
+    <t>起始手牌数量</t>
+  </si>
+  <si>
+    <t>startHandCardNum</t>
   </si>
 </sst>
 </file>
@@ -644,6 +650,12 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.149540696432386"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
       <gradientFill degree="90">
         <stop position="0">
           <color theme="0"/>
@@ -652,12 +664,6 @@
           <color theme="9" tint="0.599993896298105"/>
         </stop>
       </gradientFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149540696432386"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="15">
@@ -893,13 +899,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1046,13 +1052,13 @@
     <xf numFmtId="0" fontId="12" fillId="41" borderId="7" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="43" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
@@ -1062,6 +1068,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
@@ -1072,9 +1081,6 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1240,9 +1246,9 @@
     <cellStyle name="黑色单元格1" xfId="12"/>
     <cellStyle name="百分比" xfId="13" builtinId="5"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="黑色单元格1 2" xfId="15"/>
-    <cellStyle name="注释" xfId="16" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="17"/>
+    <cellStyle name="注释" xfId="15" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="16"/>
+    <cellStyle name="黑色单元格1 2" xfId="17"/>
     <cellStyle name="警告文本" xfId="18" builtinId="11"/>
     <cellStyle name="我的单元格2 2 2" xfId="19"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="20" builtinId="36"/>
@@ -1295,16 +1301,16 @@
     <cellStyle name="黑色单元格2" xfId="67"/>
     <cellStyle name="黑色单元格2 2" xfId="68"/>
     <cellStyle name="黑色单元格2 2 2" xfId="69"/>
-    <cellStyle name="我的标题" xfId="70"/>
-    <cellStyle name="黑色单元格2 3" xfId="71"/>
+    <cellStyle name="黑色单元格2 3" xfId="70"/>
+    <cellStyle name="我的标题" xfId="71"/>
     <cellStyle name="我的标题 2" xfId="72"/>
     <cellStyle name="我的单元格1" xfId="73"/>
     <cellStyle name="我的单元格1 2" xfId="74"/>
     <cellStyle name="我的单元格1 3" xfId="75"/>
     <cellStyle name="我的单元格2" xfId="76"/>
     <cellStyle name="我的单元格2 2" xfId="77"/>
-    <cellStyle name="我的公式 2" xfId="78"/>
-    <cellStyle name="我的单元格2 3" xfId="79"/>
+    <cellStyle name="我的单元格2 3" xfId="78"/>
+    <cellStyle name="我的公式 2" xfId="79"/>
     <cellStyle name="我的单元格3" xfId="80"/>
     <cellStyle name="我的单元格3 2" xfId="81"/>
     <cellStyle name="我的单元格4" xfId="82"/>
@@ -1626,10 +1632,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1768,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="C12" s="11">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1791,6 +1797,17 @@
       </c>
       <c r="C14" s="11">
         <v>90000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/excel/T-通用配置.xlsx
+++ b/excel/T-通用配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12210"/>
+    <workbookView windowHeight="17810"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>导出类型</t>
   </si>
@@ -116,6 +116,36 @@
   </si>
   <si>
     <t>startHandCardNum</t>
+  </si>
+  <si>
+    <t>抽牌动画时间</t>
+  </si>
+  <si>
+    <t>drawCardTime</t>
+  </si>
+  <si>
+    <t>每回合可攻击次数</t>
+  </si>
+  <si>
+    <t>roundAtkTimes</t>
+  </si>
+  <si>
+    <t>可攻击次数上限</t>
+  </si>
+  <si>
+    <t>roundAtkTimesLimit</t>
+  </si>
+  <si>
+    <t>每回合可移动次数</t>
+  </si>
+  <si>
+    <t>roundMoveTimes</t>
+  </si>
+  <si>
+    <t>可移动次数上限</t>
+  </si>
+  <si>
+    <t>roundMoveTimesLimit</t>
   </si>
 </sst>
 </file>
@@ -650,12 +680,6 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149540696432386"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
       <gradientFill degree="90">
         <stop position="0">
           <color theme="0"/>
@@ -664,6 +688,12 @@
           <color theme="9" tint="0.599993896298105"/>
         </stop>
       </gradientFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.149540696432386"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="15">
@@ -899,13 +929,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1052,13 +1082,13 @@
     <xf numFmtId="0" fontId="12" fillId="41" borderId="7" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="43" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
@@ -1068,9 +1098,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
@@ -1081,6 +1108,9 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1246,9 +1276,9 @@
     <cellStyle name="黑色单元格1" xfId="12"/>
     <cellStyle name="百分比" xfId="13" builtinId="5"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="16"/>
-    <cellStyle name="黑色单元格1 2" xfId="17"/>
+    <cellStyle name="黑色单元格1 2" xfId="15"/>
+    <cellStyle name="注释" xfId="16" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="17"/>
     <cellStyle name="警告文本" xfId="18" builtinId="11"/>
     <cellStyle name="我的单元格2 2 2" xfId="19"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="20" builtinId="36"/>
@@ -1301,16 +1331,16 @@
     <cellStyle name="黑色单元格2" xfId="67"/>
     <cellStyle name="黑色单元格2 2" xfId="68"/>
     <cellStyle name="黑色单元格2 2 2" xfId="69"/>
-    <cellStyle name="黑色单元格2 3" xfId="70"/>
-    <cellStyle name="我的标题" xfId="71"/>
+    <cellStyle name="我的标题" xfId="70"/>
+    <cellStyle name="黑色单元格2 3" xfId="71"/>
     <cellStyle name="我的标题 2" xfId="72"/>
     <cellStyle name="我的单元格1" xfId="73"/>
     <cellStyle name="我的单元格1 2" xfId="74"/>
     <cellStyle name="我的单元格1 3" xfId="75"/>
     <cellStyle name="我的单元格2" xfId="76"/>
     <cellStyle name="我的单元格2 2" xfId="77"/>
-    <cellStyle name="我的单元格2 3" xfId="78"/>
-    <cellStyle name="我的公式 2" xfId="79"/>
+    <cellStyle name="我的公式 2" xfId="78"/>
+    <cellStyle name="我的单元格2 3" xfId="79"/>
     <cellStyle name="我的单元格3" xfId="80"/>
     <cellStyle name="我的单元格3 2" xfId="81"/>
     <cellStyle name="我的单元格4" xfId="82"/>
@@ -1632,10 +1662,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1807,6 +1837,61 @@
         <v>33</v>
       </c>
       <c r="C15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20">
         <v>5</v>
       </c>
     </row>

--- a/excel/T-通用配置.xlsx
+++ b/excel/T-通用配置.xlsx
@@ -680,6 +680,12 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.149540696432386"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
       <gradientFill degree="90">
         <stop position="0">
           <color theme="0"/>
@@ -688,12 +694,6 @@
           <color theme="9" tint="0.599993896298105"/>
         </stop>
       </gradientFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149540696432386"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="15">
@@ -929,13 +929,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1082,13 +1082,13 @@
     <xf numFmtId="0" fontId="12" fillId="41" borderId="7" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="43" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
@@ -1098,6 +1098,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
@@ -1108,9 +1111,6 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1276,9 +1276,9 @@
     <cellStyle name="黑色单元格1" xfId="12"/>
     <cellStyle name="百分比" xfId="13" builtinId="5"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="黑色单元格1 2" xfId="15"/>
-    <cellStyle name="注释" xfId="16" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="17"/>
+    <cellStyle name="注释" xfId="15" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="16"/>
+    <cellStyle name="黑色单元格1 2" xfId="17"/>
     <cellStyle name="警告文本" xfId="18" builtinId="11"/>
     <cellStyle name="我的单元格2 2 2" xfId="19"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="20" builtinId="36"/>
@@ -1331,16 +1331,16 @@
     <cellStyle name="黑色单元格2" xfId="67"/>
     <cellStyle name="黑色单元格2 2" xfId="68"/>
     <cellStyle name="黑色单元格2 2 2" xfId="69"/>
-    <cellStyle name="我的标题" xfId="70"/>
-    <cellStyle name="黑色单元格2 3" xfId="71"/>
+    <cellStyle name="黑色单元格2 3" xfId="70"/>
+    <cellStyle name="我的标题" xfId="71"/>
     <cellStyle name="我的标题 2" xfId="72"/>
     <cellStyle name="我的单元格1" xfId="73"/>
     <cellStyle name="我的单元格1 2" xfId="74"/>
     <cellStyle name="我的单元格1 3" xfId="75"/>
     <cellStyle name="我的单元格2" xfId="76"/>
     <cellStyle name="我的单元格2 2" xfId="77"/>
-    <cellStyle name="我的公式 2" xfId="78"/>
-    <cellStyle name="我的单元格2 3" xfId="79"/>
+    <cellStyle name="我的单元格2 3" xfId="78"/>
+    <cellStyle name="我的公式 2" xfId="79"/>
     <cellStyle name="我的单元格3" xfId="80"/>
     <cellStyle name="我的单元格3 2" xfId="81"/>
     <cellStyle name="我的单元格4" xfId="82"/>
@@ -1665,7 +1665,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>

--- a/excel/T-通用配置.xlsx
+++ b/excel/T-通用配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17810"/>
+    <workbookView windowWidth="25600" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -680,12 +680,6 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149540696432386"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
       <gradientFill degree="90">
         <stop position="0">
           <color theme="0"/>
@@ -694,6 +688,12 @@
           <color theme="9" tint="0.599993896298105"/>
         </stop>
       </gradientFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.149540696432386"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="15">
@@ -929,13 +929,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1082,13 +1082,13 @@
     <xf numFmtId="0" fontId="12" fillId="41" borderId="7" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="43" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
@@ -1098,9 +1098,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
@@ -1111,6 +1108,9 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1276,9 +1276,9 @@
     <cellStyle name="黑色单元格1" xfId="12"/>
     <cellStyle name="百分比" xfId="13" builtinId="5"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="16"/>
-    <cellStyle name="黑色单元格1 2" xfId="17"/>
+    <cellStyle name="黑色单元格1 2" xfId="15"/>
+    <cellStyle name="注释" xfId="16" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="17"/>
     <cellStyle name="警告文本" xfId="18" builtinId="11"/>
     <cellStyle name="我的单元格2 2 2" xfId="19"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="20" builtinId="36"/>
@@ -1331,16 +1331,16 @@
     <cellStyle name="黑色单元格2" xfId="67"/>
     <cellStyle name="黑色单元格2 2" xfId="68"/>
     <cellStyle name="黑色单元格2 2 2" xfId="69"/>
-    <cellStyle name="黑色单元格2 3" xfId="70"/>
-    <cellStyle name="我的标题" xfId="71"/>
+    <cellStyle name="我的标题" xfId="70"/>
+    <cellStyle name="黑色单元格2 3" xfId="71"/>
     <cellStyle name="我的标题 2" xfId="72"/>
     <cellStyle name="我的单元格1" xfId="73"/>
     <cellStyle name="我的单元格1 2" xfId="74"/>
     <cellStyle name="我的单元格1 3" xfId="75"/>
     <cellStyle name="我的单元格2" xfId="76"/>
     <cellStyle name="我的单元格2 2" xfId="77"/>
-    <cellStyle name="我的单元格2 3" xfId="78"/>
-    <cellStyle name="我的公式 2" xfId="79"/>
+    <cellStyle name="我的公式 2" xfId="78"/>
+    <cellStyle name="我的单元格2 3" xfId="79"/>
     <cellStyle name="我的单元格3" xfId="80"/>
     <cellStyle name="我的单元格3 2" xfId="81"/>
     <cellStyle name="我的单元格4" xfId="82"/>
@@ -1665,7 +1665,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>

--- a/excel/T-通用配置.xlsx
+++ b/excel/T-通用配置.xlsx
@@ -91,7 +91,7 @@
     <t>最大卡组数量</t>
   </si>
   <si>
-    <t>maxGroupNum</t>
+    <t>maxDeckNum</t>
   </si>
   <si>
     <t>最大手牌数量</t>
@@ -680,6 +680,12 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.149540696432386"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
       <gradientFill degree="90">
         <stop position="0">
           <color theme="0"/>
@@ -688,12 +694,6 @@
           <color theme="9" tint="0.599993896298105"/>
         </stop>
       </gradientFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149540696432386"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="15">
@@ -929,13 +929,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1082,13 +1082,13 @@
     <xf numFmtId="0" fontId="12" fillId="41" borderId="7" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="43" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
@@ -1098,6 +1098,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
@@ -1108,9 +1111,6 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1276,9 +1276,9 @@
     <cellStyle name="黑色单元格1" xfId="12"/>
     <cellStyle name="百分比" xfId="13" builtinId="5"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="黑色单元格1 2" xfId="15"/>
-    <cellStyle name="注释" xfId="16" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="17"/>
+    <cellStyle name="注释" xfId="15" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="16"/>
+    <cellStyle name="黑色单元格1 2" xfId="17"/>
     <cellStyle name="警告文本" xfId="18" builtinId="11"/>
     <cellStyle name="我的单元格2 2 2" xfId="19"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="20" builtinId="36"/>
@@ -1331,16 +1331,16 @@
     <cellStyle name="黑色单元格2" xfId="67"/>
     <cellStyle name="黑色单元格2 2" xfId="68"/>
     <cellStyle name="黑色单元格2 2 2" xfId="69"/>
-    <cellStyle name="我的标题" xfId="70"/>
-    <cellStyle name="黑色单元格2 3" xfId="71"/>
+    <cellStyle name="黑色单元格2 3" xfId="70"/>
+    <cellStyle name="我的标题" xfId="71"/>
     <cellStyle name="我的标题 2" xfId="72"/>
     <cellStyle name="我的单元格1" xfId="73"/>
     <cellStyle name="我的单元格1 2" xfId="74"/>
     <cellStyle name="我的单元格1 3" xfId="75"/>
     <cellStyle name="我的单元格2" xfId="76"/>
     <cellStyle name="我的单元格2 2" xfId="77"/>
-    <cellStyle name="我的公式 2" xfId="78"/>
-    <cellStyle name="我的单元格2 3" xfId="79"/>
+    <cellStyle name="我的单元格2 3" xfId="78"/>
+    <cellStyle name="我的公式 2" xfId="79"/>
     <cellStyle name="我的单元格3" xfId="80"/>
     <cellStyle name="我的单元格3 2" xfId="81"/>
     <cellStyle name="我的单元格4" xfId="82"/>
@@ -1665,7 +1665,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>

--- a/excel/T-通用配置.xlsx
+++ b/excel/T-通用配置.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12210"/>
+    <workbookView windowWidth="24045" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -151,7 +164,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -204,6 +217,108 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -212,7 +327,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,145 +367,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="华文细黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="5" tint="-0.249977111117893"/>
       <name val="华文新魏"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -461,37 +474,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,78 +662,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.0499893185216834"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -582,84 +673,6 @@
           <color theme="1"/>
         </stop>
       </gradientFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -760,21 +773,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -785,21 +783,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
     </border>
@@ -818,6 +801,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -873,6 +871,21 @@
     </border>
     <border>
       <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -887,174 +900,174 @@
   </borders>
   <cellStyleXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="13" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="14" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="13" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="5" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="14" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1070,58 +1083,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="14" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="14" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="13" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="13" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="13" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="42" borderId="13" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="5">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="5">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="5" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="5" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="5" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="6" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="5" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="5" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="5" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="5" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
@@ -1130,97 +1143,97 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1262,64 +1275,64 @@
   </cellXfs>
   <cellStyles count="114">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="我的单元格1 2 2" xfId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8"/>
-    <cellStyle name="黑色单元格1" xfId="12"/>
-    <cellStyle name="百分比" xfId="13" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="16"/>
-    <cellStyle name="黑色单元格1 2" xfId="17"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="我的单元格2 2 2" xfId="19"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="20" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="21" builtinId="19"/>
-    <cellStyle name="标题" xfId="22" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="23" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="24" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="25" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="26" builtinId="32"/>
-    <cellStyle name="我的强调" xfId="27"/>
-    <cellStyle name="标题 3" xfId="28" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="29" builtinId="44"/>
-    <cellStyle name="输出" xfId="30" builtinId="21"/>
-    <cellStyle name="计算" xfId="31" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="32" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="33" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="34" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="35" builtinId="24"/>
-    <cellStyle name="汇总" xfId="36" builtinId="25"/>
-    <cellStyle name="好" xfId="37" builtinId="26"/>
-    <cellStyle name="适中" xfId="38" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="39" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="40" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="41" builtinId="30"/>
-    <cellStyle name="黑色标题 2" xfId="42"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="43" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="44" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="45" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="46" builtinId="37"/>
-    <cellStyle name="常规 3 2" xfId="47"/>
-    <cellStyle name="强调文字颜色 4" xfId="48" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="49" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="50" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="51" builtinId="45"/>
-    <cellStyle name="常规 2 2" xfId="52"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="53" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="54" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="55" builtinId="49"/>
-    <cellStyle name="常规 2 3" xfId="56"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="57" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="58" builtinId="52"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="我的单元格1 2 2" xfId="49"/>
+    <cellStyle name="黑色单元格1" xfId="50"/>
+    <cellStyle name="常规 6" xfId="51"/>
+    <cellStyle name="黑色单元格1 2" xfId="52"/>
+    <cellStyle name="我的单元格2 2 2" xfId="53"/>
+    <cellStyle name="我的强调" xfId="54"/>
+    <cellStyle name="黑色标题 2" xfId="55"/>
+    <cellStyle name="常规 3 2" xfId="56"/>
+    <cellStyle name="常规 2 2" xfId="57"/>
+    <cellStyle name="常规 2 3" xfId="58"/>
     <cellStyle name="常规 2" xfId="59"/>
     <cellStyle name="我的外边框 2 2" xfId="60"/>
     <cellStyle name="常规 2 4" xfId="61"/>
@@ -1665,10 +1678,10 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="24.75" customWidth="1"/>
     <col min="2" max="2" width="22.75" customWidth="1"/>
@@ -1859,7 +1872,7 @@
         <v>37</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1870,7 +1883,7 @@
         <v>39</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1881,7 +1894,7 @@
         <v>41</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1892,7 +1905,7 @@
         <v>43</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/excel/T-通用配置.xlsx
+++ b/excel/T-通用配置.xlsx
@@ -1678,7 +1678,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1817,7 +1817,7 @@
         <v>27</v>
       </c>
       <c r="C12" s="11">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1850,7 +1850,7 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3">

--- a/excel/T-通用配置.xlsx
+++ b/excel/T-通用配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>导出类型</t>
   </si>
@@ -159,6 +159,24 @@
   </si>
   <si>
     <t>roundMoveTimesLimit</t>
+  </si>
+  <si>
+    <t>近战反击系数</t>
+  </si>
+  <si>
+    <t>closeRangeStrikeBackRatio</t>
+  </si>
+  <si>
+    <t>远程反击系数</t>
+  </si>
+  <si>
+    <t>longRangeStrikeBackRatio</t>
+  </si>
+  <si>
+    <t>每回合弃牌上限</t>
+  </si>
+  <si>
+    <t>discardLimit</t>
   </si>
 </sst>
 </file>
@@ -1675,10 +1693,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1906,6 +1924,39 @@
       </c>
       <c r="C20">
         <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/excel/T-通用配置.xlsx
+++ b/excel/T-通用配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="24045" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>导出类型</t>
   </si>
@@ -177,6 +177,12 @@
   </si>
   <si>
     <t>discardLimit</t>
+  </si>
+  <si>
+    <t>帮助信息</t>
+  </si>
+  <si>
+    <t>gameHelps</t>
   </si>
 </sst>
 </file>
@@ -1693,10 +1699,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1957,6 +1963,17 @@
       </c>
       <c r="C23">
         <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/excel/T-通用配置.xlsx
+++ b/excel/T-通用配置.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="24045" windowHeight="12255"/>
   </bookViews>
   <sheets>
-    <sheet name="main" sheetId="1" r:id="rId1"/>
+    <sheet name="common" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,33 +27,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>导出类型</t>
   </si>
   <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>导出文件头</t>
-  </si>
-  <si>
-    <t>common={</t>
-  </si>
-  <si>
-    <t>导出文件</t>
-  </si>
-  <si>
-    <t>common.json</t>
-  </si>
-  <si>
-    <t>导出文件尾</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>key数量</t>
+    <t>map</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>value0</t>
+  </si>
+  <si>
+    <t>value1</t>
+  </si>
+  <si>
+    <t>value2</t>
   </si>
   <si>
     <t>配置备注</t>
@@ -65,19 +59,19 @@
     <t>通用值</t>
   </si>
   <si>
-    <t>导出参数</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>value</t>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>?double</t>
+  </si>
+  <si>
+    <t>?number[]</t>
+  </si>
+  <si>
+    <t>?string</t>
   </si>
   <si>
     <t>最大筛选费用</t>
@@ -183,6 +177,18 @@
   </si>
   <si>
     <t>gameHelps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">精简来说就是炉石+战棋:
+初始费用0,每回合开始时费用补满并且费用上限+1,最多十费;
+击败敌方英雄后获得胜利;
+使用卡牌将对应减少相应的费用(卡牌左上角数字为费用);
+每个单位每回合开始时获得一次移动和攻击的次数,建筑单位不可移动和攻击;
+单位必须放置在出兵建筑一格范围内的位置;
+建筑必须放置在己方后三行或英雄附近;
+近战单位在攻击敌方时会受到敌方反击;
+每回合拥有固定的弃牌次数,弃牌将获得一点临时费用;
+</t>
   </si>
 </sst>
 </file>
@@ -213,8 +219,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
-      <color rgb="FF0070C0"/>
+      <color indexed="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -227,18 +239,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -465,7 +469,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -486,6 +490,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -493,6 +503,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,7 +749,7 @@
       </gradientFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -757,12 +773,38 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="23"/>
       </left>
       <right style="thin">
         <color indexed="23"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="23"/>
@@ -786,12 +828,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </left>
-      <right/>
-      <top/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -945,7 +991,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -957,141 +1003,141 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="13" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="15" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="13" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="14" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="15" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="16" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1107,58 +1153,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="14" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="13" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="13" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="13" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="13" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="5">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="5">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="5" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="16" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="15" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="42" borderId="15" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="43" borderId="15" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="44" borderId="15" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="45" borderId="7">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="45" borderId="7">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="7" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="5" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="7" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
@@ -1167,101 +1213,101 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1269,32 +1315,26 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="114">
@@ -1699,10 +1739,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1714,156 +1754,181 @@
     <col min="5" max="5" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
+    </row>
+    <row r="2" ht="15"/>
+    <row r="3" ht="15.75" spans="1:5">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:5">
+      <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="9" t="s">
+      <c r="B6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="9" t="s">
+      <c r="E6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="10" t="s">
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="C7" s="8">
+        <v>7</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="C9" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="11">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="C10" s="8">
+        <v>18</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="11">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="C11" s="8">
+        <v>10</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="C12" s="8">
+        <v>50000</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="11">
-        <v>50000</v>
-      </c>
+      <c r="C13" s="8">
+        <v>90000</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="11">
-        <v>90000</v>
+      <c r="C14">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1874,7 +1939,7 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1885,7 +1950,7 @@
         <v>35</v>
       </c>
       <c r="C16">
-        <v>400</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1929,7 +1994,7 @@
         <v>43</v>
       </c>
       <c r="C20">
-        <v>99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1940,7 +2005,7 @@
         <v>45</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1951,41 +2016,52 @@
         <v>47</v>
       </c>
       <c r="C22">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" ht="299.25" spans="1:5">
       <c r="A23" t="s">
         <v>48</v>
       </c>
       <c r="B23" t="s">
         <v>49</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="C23"/>
+      <c r="E23" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24">
-        <v>123</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="0" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:C5 B7:C7 B6">
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
+  <conditionalFormatting sqref="B3:C3">
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4 B4:B6">
+    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="23"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
